--- a/Python/Research learnings/Index.xlsx
+++ b/Python/Research learnings/Index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jayee/Desktop/PhD/Learnings before joining/Languages/Python/Research learnings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30DE4BF4-6EF1-1043-B0D0-489C242D3559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FC1D23-F718-5043-972F-7502379CB030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DD7A53DC-98A8-0B40-9AB3-3FEF4FA58B1E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{DD7A53DC-98A8-0B40-9AB3-3FEF4FA58B1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Neural regression toy problem</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>from Projects/NeuralODE/240429/Neuralregression/toyProblem</t>
+  </si>
+  <si>
+    <t>Learnings while implementing GPR</t>
+  </si>
+  <si>
+    <t>from Projects/GPR/240430_toyProb_2dsystem_not_ds</t>
   </si>
 </sst>
 </file>
@@ -422,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73690D2D-0874-0E4F-BDBC-E1500E32123C}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,6 +461,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>240501</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
